--- a/ArticleManage/main_working_folder/output_folders/Data 51 Valorisation of plastic waste/Data51_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 51 Valorisation of plastic waste/Data51_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PET-8120-CO2" sheetId="1" r:id="rId1"/>
-    <sheet name="PET-815-Air" sheetId="2" r:id="rId4"/>
-    <sheet name="PET-8240-Air" sheetId="3" r:id="rId5"/>
-    <sheet name="PET-KOH-450" sheetId="4" r:id="rId6"/>
-    <sheet name="PET-KOH-600" sheetId="5" r:id="rId7"/>
-    <sheet name="PET-KOH-800" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 PET-8120-CO2  0-1-0-18" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 PET-815-Air  0-1-0-18 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 PET-8240-Air  0-1-0-18" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 PET-KOH-450  0-1-0-18 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 PET-KOH-600  0-1-0-18 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 PET-KOH-800  0-1-0-18 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PET-8120-CO2</a:t>
+              <a:t>Izoterma adsorpcji probki PET-8120-CO2 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PET-8120-CO2'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 PET-8120-CO2  0-1-0-18'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PET-8120-CO2'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 PET-8120-CO2  0-1-0-18'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PET-815-Air</a:t>
+              <a:t>Izoterma adsorpcji probki PET-815-Air z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PET-815-Air'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 PET-815-Air  0-1-0-18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PET-815-Air'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 PET-815-Air  0-1-0-18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PET-8240-Air</a:t>
+              <a:t>Izoterma adsorpcji probki PET-8240-Air z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PET-8240-Air'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 PET-8240-Air  0-1-0-18'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PET-8240-Air'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 PET-8240-Air  0-1-0-18'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PET-KOH-450</a:t>
+              <a:t>Izoterma adsorpcji probki PET-KOH-450 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PET-KOH-450'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 PET-KOH-450  0-1-0-18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PET-KOH-450'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 PET-KOH-450  0-1-0-18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PET-KOH-600</a:t>
+              <a:t>Izoterma adsorpcji probki PET-KOH-600 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PET-KOH-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 PET-KOH-600  0-1-0-18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PET-KOH-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 PET-KOH-600  0-1-0-18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PET-KOH-800</a:t>
+              <a:t>Izoterma adsorpcji probki PET-KOH-800 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PET-KOH-800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 PET-KOH-800  0-1-0-18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PET-KOH-800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 PET-KOH-800  0-1-0-18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 51 Valorisation of plastic waste/Data51_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 51 Valorisation of plastic waste/Data51_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 PET-8120-CO2  0-1-0-18" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 PET-815-Air  0-1-0-18 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 PET-8240-Air  0-1-0-18" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 PET-KOH-450  0-1-0-18 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 PET-KOH-600  0-1-0-18 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 PET-KOH-800  0-1-0-18 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 PET-8120-CO2  0&amp;1&amp;0&amp;18" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 PET-815-Air  0&amp;1&amp;0&amp;18 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 PET-8240-Air  0&amp;1&amp;0&amp;18" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 PET-KOH-450  0&amp;1&amp;0&amp;18 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 PET-KOH-600  0&amp;1&amp;0&amp;18 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 PET-KOH-800  0&amp;1&amp;0&amp;18 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-8120-CO2  0-1-0-18'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 PET-8120-CO2  0&amp;1&amp;0&amp;18'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-8120-CO2  0-1-0-18'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 PET-8120-CO2  0&amp;1&amp;0&amp;18'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-815-Air  0-1-0-18 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 PET-815-Air  0&amp;1&amp;0&amp;18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-815-Air  0-1-0-18 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 PET-815-Air  0&amp;1&amp;0&amp;18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-8240-Air  0-1-0-18'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 PET-8240-Air  0&amp;1&amp;0&amp;18'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-8240-Air  0-1-0-18'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 PET-8240-Air  0&amp;1&amp;0&amp;18'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-KOH-450  0-1-0-18 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 PET-KOH-450  0&amp;1&amp;0&amp;18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-KOH-450  0-1-0-18 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 PET-KOH-450  0&amp;1&amp;0&amp;18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-KOH-600  0-1-0-18 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 PET-KOH-600  0&amp;1&amp;0&amp;18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-KOH-600  0-1-0-18 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 PET-KOH-600  0&amp;1&amp;0&amp;18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-KOH-800  0-1-0-18 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 PET-KOH-800  0&amp;1&amp;0&amp;18 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 PET-KOH-800  0-1-0-18 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 PET-KOH-800  0&amp;1&amp;0&amp;18 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
